--- a/Development_timeline.xlsx
+++ b/Development_timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan Jun Wu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\MazeGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD1853-0353-4F0A-A116-209B80DED8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE74840-B0CC-48B3-B036-8EC42F0616D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{4F205B04-C2DE-4ABF-951A-6962A21E9518}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F205B04-C2DE-4ABF-951A-6962A21E9518}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="task_progress" localSheetId="0">[1]ProjectSchedule!$D1</definedName>
     <definedName name="task_start" localSheetId="0">[1]ProjectSchedule!$E1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -162,7 +162,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -535,7 +535,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" applyFill="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -565,22 +565,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -605,10 +595,10 @@
     <xf numFmtId="9" fontId="15" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,27 +613,15 @@
     <xf numFmtId="9" fontId="15" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="11" xfId="10" applyFill="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="11" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,21 +634,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -707,6 +670,43 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Date" xfId="10" xr:uid="{E88389F5-55EC-47EF-9358-0CC758234104}"/>
@@ -1198,21 +1198,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB486F7-6FDE-4362-BC64-62DB00AE3CB1}">
   <dimension ref="A1:BH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.578125" customWidth="1"/>
-    <col min="10" max="60" width="2.1015625" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="10" max="60" width="2.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:60" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1243,775 +1243,775 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:60" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="8"/>
       <c r="AD2" s="9"/>
     </row>
-    <row r="3" spans="1:60" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:60" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13">
+      <c r="C3" s="58"/>
+      <c r="D3" s="59">
         <f>DATE(2020,1,20)</f>
         <v>43850</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:60" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="14"/>
-      <c r="B4" s="11" t="s">
+      <c r="E3" s="59"/>
+    </row>
+    <row r="4" spans="1:60" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15">
+      <c r="C4" s="58"/>
+      <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="51">
         <v>43861</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="33">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="56">
         <v>43862</v>
       </c>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="J5" s="43" t="s">
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="J5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44" t="s">
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="43" t="s">
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="44" t="s">
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="45"/>
-    </row>
-    <row r="6" spans="1:60" ht="23.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="17" t="s">
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="54"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="54"/>
+      <c r="BH5" s="55"/>
+    </row>
+    <row r="6" spans="1:60" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="29">
         <v>12</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="29">
         <v>1</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="29">
         <v>2</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="29">
         <v>3</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="29">
         <v>4</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="29">
         <v>5</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="29">
         <v>6</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="29">
         <v>7</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="29">
         <v>8</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="29">
         <v>9</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="29">
         <v>10</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="29">
         <v>11</v>
       </c>
-      <c r="V6" s="36">
+      <c r="V6" s="29">
         <v>12</v>
       </c>
-      <c r="W6" s="36">
+      <c r="W6" s="29">
         <v>1</v>
       </c>
-      <c r="X6" s="46">
+      <c r="X6" s="48">
         <v>2</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46">
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48">
         <v>3</v>
       </c>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46">
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48">
         <v>4</v>
       </c>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="19">
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="15">
         <v>5</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="15">
         <v>6</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AF6" s="15">
         <v>7</v>
       </c>
-      <c r="AG6" s="19">
+      <c r="AG6" s="15">
         <v>8</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AH6" s="15">
         <v>9</v>
       </c>
-      <c r="AI6" s="19">
+      <c r="AI6" s="15">
         <v>10</v>
       </c>
-      <c r="AJ6" s="19">
+      <c r="AJ6" s="15">
         <v>11</v>
       </c>
-      <c r="AK6" s="36">
+      <c r="AK6" s="29">
         <v>12</v>
       </c>
-      <c r="AL6" s="36">
+      <c r="AL6" s="29">
         <v>1</v>
       </c>
-      <c r="AM6" s="36">
+      <c r="AM6" s="29">
         <v>2</v>
       </c>
-      <c r="AN6" s="36">
+      <c r="AN6" s="29">
         <v>3</v>
       </c>
-      <c r="AO6" s="36">
+      <c r="AO6" s="29">
         <v>4</v>
       </c>
-      <c r="AP6" s="36">
+      <c r="AP6" s="29">
         <v>5</v>
       </c>
-      <c r="AQ6" s="36">
+      <c r="AQ6" s="29">
         <v>6</v>
       </c>
-      <c r="AR6" s="36">
+      <c r="AR6" s="29">
         <v>7</v>
       </c>
-      <c r="AS6" s="36">
+      <c r="AS6" s="29">
         <v>8</v>
       </c>
-      <c r="AT6" s="36">
+      <c r="AT6" s="29">
         <v>9</v>
       </c>
-      <c r="AU6" s="36">
+      <c r="AU6" s="29">
         <v>10</v>
       </c>
-      <c r="AV6" s="36">
+      <c r="AV6" s="29">
         <v>11</v>
       </c>
-      <c r="AW6" s="36">
+      <c r="AW6" s="29">
         <v>12</v>
       </c>
-      <c r="AX6" s="36">
+      <c r="AX6" s="29">
         <v>1</v>
       </c>
-      <c r="AY6" s="36">
+      <c r="AY6" s="29">
         <v>2</v>
       </c>
-      <c r="AZ6" s="36">
+      <c r="AZ6" s="29">
         <v>3</v>
       </c>
-      <c r="BA6" s="36">
+      <c r="BA6" s="29">
         <v>4</v>
       </c>
-      <c r="BB6" s="19">
+      <c r="BB6" s="15">
         <v>5</v>
       </c>
-      <c r="BC6" s="19">
+      <c r="BC6" s="15">
         <v>6</v>
       </c>
-      <c r="BD6" s="19">
+      <c r="BD6" s="15">
         <v>7</v>
       </c>
-      <c r="BE6" s="19">
+      <c r="BE6" s="15">
         <v>8</v>
       </c>
-      <c r="BF6" s="19">
+      <c r="BF6" s="15">
         <v>9</v>
       </c>
-      <c r="BG6" s="19">
+      <c r="BG6" s="15">
         <v>10</v>
       </c>
-      <c r="BH6" s="19">
+      <c r="BH6" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="20"/>
+    <row r="7" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="16"/>
       <c r="I7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-    </row>
-    <row r="8" spans="1:60" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="22" t="s">
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+    </row>
+    <row r="8" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27" t="str">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23" t="str">
         <f t="shared" ref="I8" si="0">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-    </row>
-    <row r="9" spans="1:60" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="28" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+    </row>
+    <row r="9" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="26">
         <v>1</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="27">
         <f>DATE(2020,1,31)</f>
         <v>43861</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <f>D9</f>
         <v>43861</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-    </row>
-    <row r="10" spans="1:60" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="28" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+    </row>
+    <row r="10" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="26">
         <v>1</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="27">
         <f>E9</f>
         <v>43861</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <f>D10</f>
         <v>43861</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="52"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-    </row>
-    <row r="11" spans="1:60" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="28" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="39"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+    </row>
+    <row r="11" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="26">
         <v>1</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="27">
         <f>E10</f>
         <v>43861</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <f>D11</f>
         <v>43861</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-    </row>
-    <row r="12" spans="1:60" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="28" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+    </row>
+    <row r="12" spans="1:60" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="26">
         <v>1</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="27">
         <f>E11</f>
         <v>43861</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="27">
         <f>D12+1</f>
         <v>43862</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="52"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-    </row>
-    <row r="13" spans="1:60" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="28" t="s">
+      <c r="H12" s="46"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="39"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+    </row>
+    <row r="13" spans="1:60" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="26">
         <v>1</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="27">
         <f>D10</f>
         <v>43861</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="27">
         <f>D13+1</f>
         <v>43862</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="53"/>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.55000000000000004">
-      <c r="AJ14" s="38"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="37" t="s">
+      <c r="H13" s="46"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="40"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="AJ14" s="30"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="37"/>
-      <c r="B28" s="54" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="42" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="V5:AJ5"/>
+    <mergeCell ref="J4:AJ4"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="AK5:AV5"/>
+    <mergeCell ref="AW5:BH5"/>
+    <mergeCell ref="AK4:BH4"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="J4:AJ4"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="AK5:AV5"/>
-    <mergeCell ref="AW5:BH5"/>
-    <mergeCell ref="AK4:BH4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="V5:AJ5"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C13">
     <cfRule type="dataBar" priority="2">

--- a/Development_timeline.xlsx
+++ b/Development_timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\MazeGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE74840-B0CC-48B3-B036-8EC42F0616D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5148FA89-60A4-45A7-B410-018D846EB004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F205B04-C2DE-4ABF-951A-6962A21E9518}"/>
   </bookViews>
@@ -670,6 +670,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,34 +707,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Date" xfId="10" xr:uid="{E88389F5-55EC-47EF-9358-0CC758234104}"/>
@@ -1198,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB486F7-6FDE-4362-BC64-62DB00AE3CB1}">
   <dimension ref="A1:BH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1252,149 +1252,149 @@
     </row>
     <row r="3" spans="1:60" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50">
         <f>DATE(2020,1,20)</f>
         <v>43850</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:60" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="54">
         <v>43861</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="56">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="57">
         <v>43862</v>
       </c>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="51"/>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="51"/>
-      <c r="BF4" s="51"/>
-      <c r="BG4" s="51"/>
-      <c r="BH4" s="51"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="54" t="s">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="53" t="s">
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="54" t="s">
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="54"/>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="54"/>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="54"/>
-      <c r="BH5" s="55"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="53"/>
     </row>
     <row r="6" spans="1:60" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
@@ -1464,18 +1464,18 @@
       <c r="W6" s="29">
         <v>1</v>
       </c>
-      <c r="X6" s="48">
+      <c r="X6" s="58">
         <v>2</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48">
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58">
         <v>3</v>
       </c>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48">
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58">
         <v>4</v>
       </c>
-      <c r="AC6" s="49"/>
+      <c r="AC6" s="59"/>
       <c r="AD6" s="15">
         <v>5</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="AJ14" s="30"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -1937,13 +1937,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="32" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +1976,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="40" t="s">
@@ -1984,19 +1984,27 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="42" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="AK5:AV5"/>
+    <mergeCell ref="AW5:BH5"/>
+    <mergeCell ref="AK4:BH4"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>
@@ -2004,14 +2012,6 @@
     <mergeCell ref="V5:AJ5"/>
     <mergeCell ref="J4:AJ4"/>
     <mergeCell ref="J5:U5"/>
-    <mergeCell ref="AK5:AV5"/>
-    <mergeCell ref="AW5:BH5"/>
-    <mergeCell ref="AK4:BH4"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C13">
     <cfRule type="dataBar" priority="2">
@@ -2064,6 +2064,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
